--- a/2020/January/All Details/23.01.2020/MC Bank Statement Jan'2020.xlsx
+++ b/2020/January/All Details/23.01.2020/MC Bank Statement Jan'2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Mugdho-Corporation\2020\January\All Details\23.01.2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF9DF4E-C45A-4DC9-9715-37EEE8CCCADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7099CE46-1238-4B4F-B630-8DF3AD5924E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1527,6 +1527,12 @@
     <xf numFmtId="2" fontId="5" fillId="37" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="9" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1565,12 +1571,6 @@
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="35" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -2068,21 +2068,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="20.25">
-      <c r="B2" s="139" t="s">
+      <c r="B2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="140"/>
-      <c r="D2" s="140"/>
-      <c r="E2" s="141"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="143"/>
     </row>
     <row r="3" spans="1:9" ht="16.5" customHeight="1">
       <c r="A3" s="60"/>
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="144" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="B4" s="61" t="s">
@@ -3244,7 +3244,7 @@
   <dimension ref="A1:AK222"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21.75" customHeight="1"/>
@@ -3268,24 +3268,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="27" customHeight="1">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="145"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="147"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="148" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="148"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="150"/>
       <c r="F2" s="5"/>
       <c r="G2" s="14"/>
       <c r="H2" s="2"/>
@@ -3464,7 +3464,7 @@
         <v>51</v>
       </c>
       <c r="E6" s="108">
-        <v>0</v>
+        <v>230000</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="99"/>
@@ -3511,7 +3511,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="40">
-        <v>0</v>
+        <v>1415048</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="99"/>
@@ -3605,7 +3605,7 @@
         <v>52</v>
       </c>
       <c r="E9" s="107">
-        <v>0</v>
+        <v>13889.259999999776</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="99"/>
@@ -3778,12 +3778,12 @@
       </c>
       <c r="E13" s="41">
         <f>E4+E5+E6+E7+E8-E11+E9-E10</f>
-        <v>5373623.8600000003</v>
+        <v>7032561.1200000001</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="88">
         <f>B13-E13</f>
-        <v>1658937.2599999998</v>
+        <v>0</v>
       </c>
       <c r="H13" s="17"/>
       <c r="I13" s="15"/>
@@ -3858,13 +3858,13 @@
       <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="151" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="150"/>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -3910,7 +3910,7 @@
         <v>22</v>
       </c>
       <c r="E16" s="112">
-        <v>98540</v>
+        <v>98950</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="101"/>
@@ -3946,10 +3946,10 @@
       <c r="AK16" s="8"/>
     </row>
     <row r="17" spans="1:37" ht="21.75" customHeight="1">
-      <c r="A17" s="152" t="s">
+      <c r="A17" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="153">
+      <c r="B17" s="140">
         <v>171144</v>
       </c>
       <c r="C17" s="32"/>
@@ -3957,7 +3957,7 @@
         <v>25</v>
       </c>
       <c r="E17" s="113">
-        <v>191435</v>
+        <v>193555</v>
       </c>
       <c r="G17" s="101"/>
       <c r="H17" s="100"/>
@@ -3996,7 +3996,7 @@
         <v>26</v>
       </c>
       <c r="B18" s="86">
-        <v>20000</v>
+        <v>54000</v>
       </c>
       <c r="C18" s="32"/>
       <c r="D18" s="35" t="s">
